--- a/BSc Computer Science (40x Subjects R80000) 0%/1st Year (10x Subjects R20000) 25%/2nd Term/BUS1101 Principles of Business Management/Grade Calculations.xlsx
+++ b/BSc Computer Science (40x Subjects R80000) 0%/1st Year (10x Subjects R20000) 25%/2nd Term/BUS1101 Principles of Business Management/Grade Calculations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="27">
   <si>
     <t>Discussion Assignments</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>Total Waiting</t>
+  </si>
+  <si>
+    <t>Lowest Grade</t>
+  </si>
+  <si>
+    <t>Highest Loss</t>
   </si>
 </sst>
 </file>
@@ -130,12 +136,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,7 +449,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,6 +533,13 @@
       <c r="D4" s="1">
         <v>0.1</v>
       </c>
+      <c r="F4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="1">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -538,6 +554,13 @@
       <c r="D5" s="1">
         <v>0.4</v>
       </c>
+      <c r="F5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="1">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -826,6 +849,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/BSc Computer Science (40x Subjects R80000) 0%/1st Year (10x Subjects R20000) 25%/2nd Term/BUS1101 Principles of Business Management/Grade Calculations.xlsx
+++ b/BSc Computer Science (40x Subjects R80000) 0%/1st Year (10x Subjects R20000) 25%/2nd Term/BUS1101 Principles of Business Management/Grade Calculations.xlsx
@@ -103,11 +103,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,21 +139,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -449,7 +459,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,14 +506,14 @@
       <c r="D2" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F2" s="2">
-        <v>0.1225</v>
+      <c r="F2" s="1">
+        <v>0.13</v>
       </c>
       <c r="G2" s="2">
-        <v>7.7499999999999999E-2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.8</v>
+        <v>0.1075</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.76249999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -581,28 +591,24 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1.125E-2</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1.25E-3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>7.4999999999999997E-3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -623,10 +629,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1.2500000000000001E-2</v>
+        <v>0.8</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -669,24 +678,38 @@
       <c r="A17" t="s">
         <v>6</v>
       </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="2">
-        <v>0.8125</v>
-      </c>
-      <c r="C19" s="4">
-        <v>8.1250000000000003E-2</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1.8749999999999999E-2</v>
+      <c r="B19" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">

--- a/BSc Computer Science (40x Subjects R80000) 0%/1st Year (10x Subjects R20000) 25%/2nd Term/BUS1101 Principles of Business Management/Grade Calculations.xlsx
+++ b/BSc Computer Science (40x Subjects R80000) 0%/1st Year (10x Subjects R20000) 25%/2nd Term/BUS1101 Principles of Business Management/Grade Calculations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="28">
   <si>
     <t>Discussion Assignments</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Highest Loss</t>
+  </si>
+  <si>
+    <t>Absolute Minimum</t>
   </si>
 </sst>
 </file>
@@ -149,11 +152,11 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,7 +462,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F3" sqref="F3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,6 +532,13 @@
       <c r="D3" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="F3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="1">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -543,10 +553,10 @@
       <c r="D4" s="1">
         <v>0.1</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="1">
         <v>0.73</v>
       </c>
@@ -564,10 +574,10 @@
       <c r="D5" s="1">
         <v>0.4</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="1">
         <v>0.27</v>
       </c>
@@ -593,7 +603,7 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="D8" s="4"/>
@@ -634,7 +644,7 @@
       <c r="C12" s="4">
         <v>0.01</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
@@ -681,7 +691,7 @@
       <c r="B17" s="4">
         <v>1</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="D17" s="4"/>
@@ -693,7 +703,7 @@
       <c r="B18" s="4">
         <v>1</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D18" s="4"/>
@@ -872,9 +882,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BSc Computer Science (40x Subjects R80000) 0%/1st Year (10x Subjects R20000) 25%/2nd Term/BUS1101 Principles of Business Management/Grade Calculations.xlsx
+++ b/BSc Computer Science (40x Subjects R80000) 0%/1st Year (10x Subjects R20000) 25%/2nd Term/BUS1101 Principles of Business Management/Grade Calculations.xlsx
@@ -462,7 +462,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:G3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,14 +509,14 @@
       <c r="D2" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F2" s="1">
-        <v>0.13</v>
+      <c r="F2" s="2">
+        <v>0.16750000000000001</v>
       </c>
       <c r="G2" s="2">
         <v>0.1075</v>
       </c>
-      <c r="H2" s="2">
-        <v>0.76249999999999996</v>
+      <c r="H2" s="3">
+        <v>0.72499999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -740,10 +740,22 @@
       <c r="A22" t="s">
         <v>6</v>
       </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1.2500000000000001E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
